--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_12_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>971690.0237095912</v>
+        <v>968988.8070581341</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>97.26234557100793</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190676</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284203</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>91.95250862406951</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>35.4671071855802</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.75392192072633</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897792</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154317</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154302</v>
+        <v>12.41899097776992</v>
       </c>
       <c r="H5" t="n">
-        <v>232.7297398814321</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863703</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660375</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.77682125737078</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333229</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.360182258713763</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698458</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>175.4416109091513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488756</v>
       </c>
       <c r="D7" t="n">
-        <v>21.72098829088212</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>116.5499160015377</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315185</v>
+        <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059546</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>227.3776380737608</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>77.10880819652988</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>213.0024521866553</v>
+        <v>304.0065125199824</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184563</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530794</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>42.37033989662658</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793324</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>19.9155582618913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465698</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>109.8058856274581</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795594</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.97607332172174</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.07731664460542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456774</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>206.2895129765299</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.92847288552921</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.79977260571647</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>160.1597912951073</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>38.61213096654769</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.76895293959836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.8873540667201</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>30.9719158638759</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="D2" t="n">
-        <v>157.4777567984221</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E2" t="n">
-        <v>157.4777567984221</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>956.6107264999559</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="T2" t="n">
-        <v>956.6107264999559</v>
+        <v>900.5447187946894</v>
       </c>
       <c r="U2" t="n">
-        <v>956.6107264999559</v>
+        <v>646.8597007358183</v>
       </c>
       <c r="V2" t="n">
-        <v>690.233069932778</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="W2" t="n">
-        <v>423.8554133656</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="X2" t="n">
-        <v>423.8554133656</v>
+        <v>380.4820441686402</v>
       </c>
       <c r="Y2" t="n">
-        <v>423.8554133656</v>
+        <v>307.3840804899465</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329.2689750668272</v>
+        <v>197.1648447922851</v>
       </c>
       <c r="C3" t="n">
-        <v>329.2689750668272</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
         <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742757</v>
+        <v>808.3837902496286</v>
       </c>
       <c r="V3" t="n">
-        <v>629.9105956742757</v>
+        <v>573.231682017886</v>
       </c>
       <c r="W3" t="n">
-        <v>537.0292738317812</v>
+        <v>573.231682017886</v>
       </c>
       <c r="X3" t="n">
-        <v>537.0292738317812</v>
+        <v>365.3801818123532</v>
       </c>
       <c r="Y3" t="n">
-        <v>329.2689750668272</v>
+        <v>365.3801818123532</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>800.1710318001377</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>631.2348488722308</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>481.1182094598951</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>481.1182094598951</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>334.2282619619847</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001377</v>
+        <v>563.0088271968613</v>
       </c>
       <c r="W4" t="n">
-        <v>800.1710318001377</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>800.1710318001377</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>800.1710318001377</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>760.5877097678715</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="C5" t="n">
-        <v>760.5877097678715</v>
+        <v>816.5910675842886</v>
       </c>
       <c r="D5" t="n">
-        <v>760.5877097678715</v>
+        <v>816.5910675842886</v>
       </c>
       <c r="E5" t="n">
-        <v>760.5877097678715</v>
+        <v>430.8028149860443</v>
       </c>
       <c r="F5" t="n">
-        <v>753.642209018668</v>
+        <v>43.23945355631528</v>
       </c>
       <c r="G5" t="n">
-        <v>366.0788475889406</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541607</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523441</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275096</v>
+        <v>93.76641159275175</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245553</v>
+        <v>239.0325989245567</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482562</v>
+        <v>456.1499114825642</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748842</v>
+        <v>729.4041931748873</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202377</v>
+        <v>1011.693823202381</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.91665479841</v>
+        <v>1264.916654798415</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189407</v>
+        <v>1446.535482189413</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261721</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261721</v>
+        <v>1389.996673518255</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261721</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261721</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="W5" t="n">
-        <v>1534.750911261721</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="X5" t="n">
-        <v>1534.750911261721</v>
+        <v>1136.345205654773</v>
       </c>
       <c r="Y5" t="n">
-        <v>1147.187549831993</v>
+        <v>1136.345205654773</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>746.409418851874</v>
+        <v>264.6115818588821</v>
       </c>
       <c r="C6" t="n">
-        <v>571.956389570747</v>
+        <v>264.6115818588821</v>
       </c>
       <c r="D6" t="n">
-        <v>571.956389570747</v>
+        <v>264.6115818588821</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7189345652914</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1843765921764</v>
+        <v>167.8673179625479</v>
       </c>
       <c r="G6" t="n">
-        <v>129.012076854863</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523441</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523441</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034037</v>
+        <v>49.4420610756344</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516505</v>
+        <v>159.638568016945</v>
       </c>
       <c r="L6" t="n">
-        <v>375.4788954830021</v>
+        <v>354.1339118482972</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537476</v>
+        <v>600.4576725190434</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259696</v>
+        <v>889.0545187259744</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891488</v>
+        <v>1111.317965891493</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090175</v>
+        <v>1270.370911090181</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261721</v>
+        <v>1534.750911261727</v>
       </c>
       <c r="R6" t="n">
-        <v>1534.750911261721</v>
+        <v>1530.346686757976</v>
       </c>
       <c r="S6" t="n">
-        <v>1534.750911261721</v>
+        <v>1385.878273152071</v>
       </c>
       <c r="T6" t="n">
-        <v>1534.750911261721</v>
+        <v>1189.973630703755</v>
       </c>
       <c r="U6" t="n">
-        <v>1534.750911261721</v>
+        <v>961.8525470243592</v>
       </c>
       <c r="V6" t="n">
-        <v>1299.598803029978</v>
+        <v>726.7004387926165</v>
       </c>
       <c r="W6" t="n">
-        <v>1299.598803029978</v>
+        <v>472.4630820644149</v>
       </c>
       <c r="X6" t="n">
-        <v>1122.385054636896</v>
+        <v>264.6115818588821</v>
       </c>
       <c r="Y6" t="n">
-        <v>914.6247558719419</v>
+        <v>264.6115818588821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.63541043824665</v>
+        <v>236.9104562721288</v>
       </c>
       <c r="C7" t="n">
-        <v>52.63541043824665</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="D7" t="n">
-        <v>30.69501822523441</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="E7" t="n">
-        <v>30.69501822523441</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="F7" t="n">
-        <v>30.69501822523441</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523441</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523441</v>
+        <v>148.4222061055757</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523441</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523441</v>
+        <v>30.69501822523454</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223265</v>
+        <v>157.4322756223269</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830385</v>
+        <v>375.1387655830393</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388147</v>
+        <v>615.0688576388159</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974818</v>
+        <v>854.7285647974833</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891671</v>
+        <v>1060.076798891673</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934021</v>
+        <v>1212.267005934023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495183</v>
+        <v>1234.200536495185</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.86649040274</v>
+        <v>1113.866490402742</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.86649040274</v>
+        <v>910.3578444371316</v>
       </c>
       <c r="T7" t="n">
-        <v>1113.86649040274</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="U7" t="n">
-        <v>824.7266195791115</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="V7" t="n">
-        <v>570.0421313732246</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="W7" t="n">
-        <v>280.624961336264</v>
+        <v>685.6925863136762</v>
       </c>
       <c r="X7" t="n">
-        <v>52.63541043824665</v>
+        <v>457.7030354156589</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.63541043824665</v>
+        <v>236.9104562721288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1797.459220126683</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.784838233996</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190805</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190805</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>2184.059060190805</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>276.0244191129133</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>276.0244191129133</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>276.0244191129133</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>276.0244191129133</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>129.134471615003</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478913</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>504.0139700109307</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>276.0244191129133</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>276.0244191129133</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2162.818639263944</v>
+        <v>1485.490329133573</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.856122323532</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="D11" t="n">
-        <v>1435.590423716782</v>
+        <v>1116.527812193162</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
         <v>809.4505268194423</v>
@@ -5033,58 +5033,58 @@
         <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656953</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484041</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479992</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464059</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796034</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796034</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796034</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917562</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573992</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.557811303877</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2939.557811303877</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2549.418479328066</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870411</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046652</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929965</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749524</v>
+        <v>1397.430603019146</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.7318425453596</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>221.9335194174539</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>221.9335194174539</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="F13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592068</v>
+        <v>77.53766591592075</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344806</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336947</v>
+        <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
         <v>1786.049800818664</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659994</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454107</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171467</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191294</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3803073755993</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5255,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,34 +5291,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876695</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597626</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474267</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650337</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5446,40 +5446,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>985.7836617409696</v>
+        <v>538.7363435406118</v>
       </c>
       <c r="C19" t="n">
-        <v>816.8474788130627</v>
+        <v>538.7363435406118</v>
       </c>
       <c r="D19" t="n">
-        <v>666.7308394007268</v>
+        <v>388.619704128276</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8177458183338</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>371.9277983204236</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>204.7316990353033</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.432126571209</v>
+        <v>720.3848083708515</v>
       </c>
     </row>
     <row r="20">
@@ -5732,58 +5732,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154851</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814783006</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038393</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797795</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570823</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279808</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.10824923517</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258111</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602309</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396422</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359461</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,22 +5999,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>221.3431781811715</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969303</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855603</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649716</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612756</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714738</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>1167.432126571208</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675713</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,16 +6473,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6552,16 +6552,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458821</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
         <v>93.81666304797187</v>
@@ -6622,19 +6622,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.291686000759</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.607197794872</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6689,49 +6689,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6743,7 +6743,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327645</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048576</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133955</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310024</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630042</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7181,7 +7181,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>662.1522880254209</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.9555321712451</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433382</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310024</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,13 +7728,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637028</v>
+        <v>34.43939438636991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000642</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000837</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111059</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>168.9279178856065</v>
+        <v>77.9238575522794</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>124.8764812020013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927377</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905243</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811039</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.074338869684235e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>30.48882721876573</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389242</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.6339153725354</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.608580030373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7546635373319</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295041</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>45.84813034729808</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.44677382459246</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>65.54986409392981</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>110.0033420516647</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.8157004124964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.94462611521723</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>136.2749052347519</v>
+        <v>43.26526345295009</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>886426.4207094233</v>
+        <v>886426.4207094236</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>975895.2472081555</v>
+        <v>975895.2472081553</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>975895.2472081553</v>
+        <v>975895.2472081552</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509176</v>
+        <v>402924.0843509179</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295032</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657061</v>
+        <v>132804.2190657077</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929385</v>
+        <v>265413.0723929369</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545769</v>
+        <v>313577.1573545777</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704297</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.429264174</v>
+        <v>30877.42926417438</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049574</v>
+        <v>65018.34502049541</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273067</v>
+        <v>81897.40371273094</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320238</v>
+        <v>49839.5741320235</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>246753.8673982313</v>
       </c>
       <c r="C4" t="n">
-        <v>210579.7944078832</v>
+        <v>210579.7944078827</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26427,37 +26427,37 @@
         <v>8011.893867085435</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426731965</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731971</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731918</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731984</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731984</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731993</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667487</v>
+        <v>72593.650386675</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738563</v>
+        <v>85137.48506738569</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-538316.6777683349</v>
+        <v>-538316.677768335</v>
       </c>
       <c r="C6" t="n">
-        <v>35595.30956509167</v>
+        <v>35595.30956509037</v>
       </c>
       <c r="D6" t="n">
-        <v>-41095.87166929108</v>
+        <v>-41095.87166928969</v>
       </c>
       <c r="E6" t="n">
-        <v>-3802.451938130325</v>
+        <v>-4023.583252105625</v>
       </c>
       <c r="F6" t="n">
-        <v>145382.5188084347</v>
+        <v>145347.7808829999</v>
       </c>
       <c r="G6" t="n">
-        <v>334690.7875788641</v>
+        <v>334656.0496534284</v>
       </c>
       <c r="H6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534285</v>
       </c>
       <c r="I6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534286</v>
       </c>
       <c r="J6" t="n">
-        <v>265691.6331597502</v>
+        <v>265656.8952343146</v>
       </c>
       <c r="K6" t="n">
-        <v>303813.3583146904</v>
+        <v>303778.6203892542</v>
       </c>
       <c r="L6" t="n">
-        <v>269672.4425583686</v>
+        <v>269637.7046329331</v>
       </c>
       <c r="M6" t="n">
-        <v>252793.3838661337</v>
+        <v>252758.6459406976</v>
       </c>
       <c r="N6" t="n">
-        <v>284851.2134468405</v>
+        <v>284816.4755214049</v>
       </c>
       <c r="O6" t="n">
-        <v>334690.7875788644</v>
+        <v>334656.0496534285</v>
       </c>
       <c r="P6" t="n">
-        <v>334690.7875788643</v>
+        <v>334656.0496534284</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.331951169574</v>
+        <v>717.3319511695754</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154302</v>
+        <v>383.6877278154317</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490086</v>
+        <v>969.2208239490094</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000958</v>
+        <v>103.276937400097</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479651</v>
+        <v>216.7329409479637</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.1763450974115</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.897104284607</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="F4" t="n">
-        <v>203.48746415064</v>
+        <v>203.487464150639</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.8971042846068</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.6359918489709</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813924</v>
+        <v>119.9738478139255</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846087</v>
+        <v>256.897104284607</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489698</v>
+        <v>328.6359918489707</v>
       </c>
       <c r="N4" t="n">
-        <v>203.48746415064</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>55.50534762821434</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.8709546141469</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954737</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>159.7424745368501</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>131.4165598529664</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117122</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>208.7690764158647</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.7162950812284</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>23.18831792627969</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>28.73126316233976</v>
-      </c>
       <c r="H5" t="n">
-        <v>77.21189300854454</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863682</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840623436</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.86825919803016</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333227</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951737</v>
+        <v>36.27346476951727</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713948</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238326</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>30.33137429432617</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374028</v>
       </c>
       <c r="D7" t="n">
-        <v>126.8944847273302</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083602</v>
+        <v>150.7263422083601</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015378</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643649</v>
+        <v>1.905236112643479</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>137.8952536972467</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>89.19779184827431</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.512713316715693e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-7.769871225431261e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.860112312599085e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365119</v>
+        <v>2.883746537365125</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579054</v>
+        <v>29.53316922579059</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817689</v>
+        <v>111.1756383817691</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756931</v>
+        <v>244.7543826756935</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023586</v>
+        <v>366.8233736023593</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952465</v>
+        <v>455.0768316952474</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791134</v>
+        <v>506.3606591791144</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284021</v>
+        <v>514.5541040284031</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974777</v>
+        <v>485.8788493974786</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562762</v>
+        <v>414.686356756277</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868878</v>
+        <v>311.4121838868884</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277618</v>
+        <v>181.1461434277622</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020773</v>
+        <v>65.71337422020785</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731582</v>
+        <v>12.62360046731584</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892095</v>
+        <v>0.23069972298921</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270405</v>
+        <v>1.542940423270408</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316417</v>
+        <v>14.9015561931642</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189771</v>
+        <v>53.12316808189781</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862622</v>
+        <v>145.7740335862625</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453793</v>
+        <v>249.1510419453798</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438657</v>
+        <v>335.0143230438663</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874178</v>
+        <v>390.9459133874186</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189111</v>
+        <v>401.2930884189119</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348668</v>
+        <v>367.1047769348675</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190653</v>
+        <v>294.6339480190658</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739555</v>
+        <v>196.9549915739559</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392919</v>
+        <v>95.79765189392937</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399192</v>
+        <v>28.65944163399198</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21913267098904</v>
+        <v>6.219132670989053</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101509238373053</v>
+        <v>0.1015092383730532</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141855</v>
+        <v>1.293549420141857</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907941</v>
+        <v>11.50083029907943</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572052</v>
+        <v>38.90055892572059</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402913</v>
+        <v>91.4539440040293</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401173</v>
+        <v>150.2869235401176</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545445</v>
+        <v>192.3155201545449</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773273</v>
+        <v>202.7697513773276</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022532</v>
+        <v>197.9483399022536</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669597</v>
+        <v>182.83733076696</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960657</v>
+        <v>156.448922596066</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266057</v>
+        <v>108.3171246266059</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565102</v>
+        <v>58.16268574565112</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101759</v>
+        <v>22.54303853101763</v>
       </c>
       <c r="T7" t="n">
-        <v>5.52698388606065</v>
+        <v>5.526983886060661</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864669</v>
+        <v>0.07055724109864683</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869142</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639236</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975123</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544653</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954555</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180163</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.32813369568</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620354</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825967</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495313</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469206</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193136</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598379</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>171.3336650206128</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821476</v>
+        <v>655.2214742821481</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340502</v>
+        <v>267.5398078833321</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924471</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383443</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047538</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798451</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.318904810054</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811706</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837748</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>453.7122424932249</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>237.3557891543622</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>266.6561007250657</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,19 +33263,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33284,16 +33284,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900677</v>
+        <v>63.70847814900722</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573781</v>
+        <v>146.7335225573788</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252592</v>
+        <v>219.3104167252602</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518407</v>
+        <v>276.0144259518416</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318112</v>
+        <v>285.1410404318122</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757909</v>
+        <v>255.7806379757918</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010067</v>
+        <v>183.4533610010075</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243828</v>
+        <v>89.1064940124389</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960197</v>
+        <v>18.93640691959581</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710204</v>
+        <v>111.3096029710208</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639915</v>
+        <v>196.4599432639922</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653995</v>
+        <v>248.8118794654002</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355777</v>
+        <v>291.5119658655869</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904224</v>
+        <v>224.5085324904231</v>
       </c>
       <c r="P6" t="n">
-        <v>160.659540604735</v>
+        <v>160.6595406047356</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237831</v>
+        <v>267.0505052237835</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142344</v>
+        <v>128.0174317142347</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148607</v>
+        <v>219.905545414861</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391678</v>
+        <v>242.3536283391682</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814818</v>
+        <v>242.0805122814822</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809993</v>
+        <v>207.4224586809997</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609592</v>
+        <v>153.7274818609595</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491129</v>
+        <v>22.1550813749115</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,16 +35264,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072288</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525318</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681828</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739932</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067659</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081472</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553062</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526469</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854789</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>32.77928524073863</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601297</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507169</v>
+        <v>136.1980957999988</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480026</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187323</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.9167231918627</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946634</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776306</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>322.3705304098916</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>94.75954470991782</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295829</v>
+        <v>81.04648326295315</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>128.8146617507067</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
